--- a/Data/Excel Files/All years/edited/2012 Hakai_edited_MAW.xlsx
+++ b/Data/Excel Files/All years/edited/2012 Hakai_edited_MAW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mawha\Dropbox\Martone Lab\Hakai_RockyShoreSeaweeds\Data\Excel Files\All years\edited\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mawha\Dropbox\Martone Lab\martone_calvert\Data\Excel Files\All years\edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB83C39-693F-4AF8-833F-E7885A50A6E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14669CD9-BE51-44A7-A279-8973638F65D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="468" windowWidth="22092" windowHeight="15468" tabRatio="966" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="468" windowWidth="22092" windowHeight="15468" tabRatio="966" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="West Beach LOW 2011" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="272">
   <si>
     <t>Date</t>
   </si>
@@ -1031,6 +1031,9 @@
   <si>
     <t>panicea</t>
   </si>
+  <si>
+    <t>??</t>
+  </si>
 </sst>
 </file>
 
@@ -25161,7 +25164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -31848,8 +31851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31991,11 +31994,17 @@
       <c r="G4" t="s">
         <v>55</v>
       </c>
+      <c r="H4" t="s">
+        <v>271</v>
+      </c>
       <c r="I4" t="s">
         <v>105</v>
       </c>
       <c r="J4" t="s">
         <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -32020,11 +32029,17 @@
       <c r="G5" t="s">
         <v>106</v>
       </c>
+      <c r="H5" t="s">
+        <v>271</v>
+      </c>
       <c r="I5" t="s">
         <v>105</v>
       </c>
       <c r="J5" t="s">
         <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
